--- a/02_Data/04_Social indicators/Data Exp.xlsx
+++ b/02_Data/04_Social indicators/Data Exp.xlsx
@@ -8,49 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\04_Social indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71DEEA5-D4CD-4CB2-B4FD-3B68CFCF2112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87F6A3-E889-430A-8A1E-873C533CBD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2950" yWindow="2420" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t xml:space="preserve">country </t>
   </si>
   <si>
-    <t xml:space="preserve">nuts level </t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poverty </t>
   </si>
   <si>
     <t>Metadata</t>
   </si>
   <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>Unemployment (%)</t>
-  </si>
-  <si>
-    <t>Social Exlusion (%)</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -150,14 +144,140 @@
     <t>Liechstenstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Income </t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Nuts level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NUTS3</t>
+  </si>
+  <si>
+    <t>2019 - 2020</t>
+  </si>
+  <si>
+    <t>NUTS5</t>
+  </si>
+  <si>
+    <t>NUTS6</t>
+  </si>
+  <si>
+    <t>NUTS7</t>
+  </si>
+  <si>
+    <t>NUTS8</t>
+  </si>
+  <si>
+    <t>NUTS9</t>
+  </si>
+  <si>
+    <t>NUTS10</t>
+  </si>
+  <si>
+    <t>NUTS11</t>
+  </si>
+  <si>
+    <t>NUTS12</t>
+  </si>
+  <si>
+    <t>NUTS13</t>
+  </si>
+  <si>
+    <t>NUTS14</t>
+  </si>
+  <si>
+    <t>NUTS15</t>
+  </si>
+  <si>
+    <t>NUTS16</t>
+  </si>
+  <si>
+    <t>NUTS17</t>
+  </si>
+  <si>
+    <t>NUTS18</t>
+  </si>
+  <si>
+    <t>NUTS19</t>
+  </si>
+  <si>
+    <t>NUTS20</t>
+  </si>
+  <si>
+    <t>NUTS21</t>
+  </si>
+  <si>
+    <t>NUTS22</t>
+  </si>
+  <si>
+    <t>NUTS23</t>
+  </si>
+  <si>
+    <t>NUTS24</t>
+  </si>
+  <si>
+    <t>NUTS25</t>
+  </si>
+  <si>
+    <t>NUTS26</t>
+  </si>
+  <si>
+    <t>NUTS27</t>
+  </si>
+  <si>
+    <t>NUTS28</t>
+  </si>
+  <si>
+    <t>NUTS29</t>
+  </si>
+  <si>
+    <t>NUTS30</t>
+  </si>
+  <si>
+    <t>NUTS31</t>
+  </si>
+  <si>
+    <t>NUTS32</t>
+  </si>
+  <si>
+    <t>NUTS33</t>
+  </si>
+  <si>
+    <t>NUTS34</t>
+  </si>
+  <si>
+    <t>NUTS35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population </t>
+  </si>
+  <si>
+    <t>2019 - 2020 - 2021</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>LAU2</t>
+  </si>
+  <si>
+    <t>NUTS3-2/LAU2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +293,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,12 +339,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,280 +635,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.36328125" customWidth="1"/>
     <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="N2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="O2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="P2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>2021</v>
-      </c>
-      <c r="R2" s="2">
-        <v>2019</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="T2" s="2">
-        <v>2021</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="F25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="F26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="F27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="F28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="F31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="F32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="F33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>40</v>
+      <c r="F35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -768,6 +1195,7 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
